--- a/45.xlsx
+++ b/45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/18417269/Projects/my/StepicPythonBasic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815B0903-2EAE-4045-8B67-1C1D4723E4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3582DCF-074E-A845-915F-61EDBDC74D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740" xr2:uid="{14F5B9FF-BE4E-654C-9583-4D0D4035F04A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="45">
   <si>
     <t>Дата</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Рокировка</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -238,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +323,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -377,7 +386,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -437,18 +446,6 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -466,25 +463,32 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -1939,7 +1943,7 @@
   <dimension ref="A2:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1947,6 +1951,7 @@
     <col min="14" max="14" width="37.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1984,14 +1989,17 @@
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="1">
-        <v>50</v>
+      <c r="P3" s="49">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -2002,7 +2010,7 @@
         <v>38.26</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C9" si="0">45-B4</f>
+        <f t="shared" ref="C4:C8" si="0">45-B4</f>
         <v>6.740000000000002</v>
       </c>
       <c r="D4" s="1">
@@ -2012,17 +2020,19 @@
       <c r="M4">
         <v>2</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="49">
         <f>50/4</f>
         <v>12.5</v>
       </c>
-      <c r="Q4" s="45"/>
+      <c r="Q4" s="43" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -2042,16 +2052,16 @@
       <c r="M5">
         <v>3</v>
       </c>
-      <c r="N5" s="52" t="s">
+      <c r="N5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="47" t="s">
+      <c r="O5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="46">
+      <c r="P5" s="40">
         <v>100</v>
       </c>
-      <c r="Q5" s="45"/>
+      <c r="Q5" s="43"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -2071,13 +2081,13 @@
       <c r="M6">
         <v>4</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="48" t="s">
+      <c r="O6" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="49">
         <f>33/4</f>
         <v>8.25</v>
       </c>
@@ -2100,7 +2110,7 @@
       <c r="M7">
         <v>5</v>
       </c>
-      <c r="N7" s="53" t="s">
+      <c r="N7" s="42" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="48" t="s">
@@ -2130,7 +2140,7 @@
       <c r="M8">
         <v>6</v>
       </c>
-      <c r="N8" s="53" t="s">
+      <c r="N8" s="42" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="48" t="s">
@@ -2154,13 +2164,13 @@
       <c r="M9">
         <v>7</v>
       </c>
-      <c r="N9" s="53" t="s">
+      <c r="N9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="49" t="s">
+      <c r="O9" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="50">
+      <c r="P9" s="42">
         <v>70</v>
       </c>
     </row>
@@ -2174,7 +2184,6 @@
         <f t="shared" si="1"/>
         <v>3.0299999999999985</v>
       </c>
-      <c r="N10" s="54"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -2189,13 +2198,13 @@
       <c r="M11">
         <v>8</v>
       </c>
-      <c r="N11" s="53" t="s">
+      <c r="N11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="O11" s="49" t="s">
+      <c r="O11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="50">
+      <c r="P11" s="42">
         <v>30</v>
       </c>
     </row>
@@ -2212,7 +2221,7 @@
       <c r="M12">
         <v>9</v>
       </c>
-      <c r="N12" s="52" t="s">
+      <c r="N12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O12" s="24" t="s">
@@ -2235,13 +2244,13 @@
       <c r="M13">
         <v>10</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O13" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13" s="40">
         <v>50</v>
       </c>
     </row>
@@ -2258,13 +2267,13 @@
       <c r="M14">
         <v>11</v>
       </c>
-      <c r="N14" s="51" t="s">
+      <c r="N14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="49">
         <v>50</v>
       </c>
     </row>
@@ -2278,7 +2287,6 @@
         <f t="shared" si="1"/>
         <v>2.999999999999825E-2</v>
       </c>
-      <c r="N15" s="54"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -2341,26 +2349,26 @@
     <col min="17" max="17" width="7.6640625" style="23" customWidth="1"/>
     <col min="18" max="18" width="7.6640625" style="19" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" style="35"/>
+    <col min="21" max="21" width="10.83203125" style="31"/>
     <col min="22" max="22" width="3.5" customWidth="1"/>
     <col min="25" max="29" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="O1" s="33" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="O1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="34" t="s">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="U1" s="35">
+      <c r="R1" s="47"/>
+      <c r="U1" s="31">
         <v>22</v>
       </c>
     </row>
@@ -2432,17 +2440,17 @@
       <c r="R4" s="24"/>
     </row>
     <row r="5" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="O5" s="4"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="25"/>
       <c r="R5" s="24"/>
-      <c r="U5" s="36"/>
+      <c r="U5" s="32"/>
     </row>
     <row r="6" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -2468,7 +2476,7 @@
       <c r="R6" s="30">
         <v>34</v>
       </c>
-      <c r="U6" s="36"/>
+      <c r="U6" s="32"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -2492,7 +2500,7 @@
         <v>33</v>
       </c>
       <c r="R7" s="24"/>
-      <c r="U7" s="36"/>
+      <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -2519,27 +2527,27 @@
       <c r="R8" s="30">
         <v>70</v>
       </c>
-      <c r="U8" s="36"/>
+      <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="O9" s="4"/>
       <c r="P9" s="24"/>
       <c r="Q9" s="25"/>
       <c r="R9" s="24"/>
-      <c r="U9" s="36"/>
+      <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
       <c r="O10" s="4"/>
       <c r="P10" s="24"/>
       <c r="Q10" s="25"/>
       <c r="R10" s="24"/>
-      <c r="U10" s="36"/>
+      <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -2563,7 +2571,7 @@
         <v>100</v>
       </c>
       <c r="R11" s="24"/>
-      <c r="U11" s="36"/>
+      <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
@@ -2582,7 +2590,7 @@
       </c>
       <c r="Q12" s="25"/>
       <c r="R12" s="24"/>
-      <c r="U12" s="36"/>
+      <c r="U12" s="32"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
@@ -2602,37 +2610,37 @@
       </c>
       <c r="Q13" s="25"/>
       <c r="R13" s="24"/>
-      <c r="U13" s="36"/>
+      <c r="U13" s="32"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="O14" s="4"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="24"/>
-      <c r="U14" s="36"/>
+      <c r="U14" s="32"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
       <c r="O15" s="4"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="24"/>
-      <c r="U15" s="36"/>
+      <c r="U15" s="32"/>
       <c r="Y15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Z15" s="41" t="s">
+      <c r="Z15" s="37" t="s">
         <v>31</v>
       </c>
       <c r="AA15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AB15" s="41" t="s">
+      <c r="AB15" s="37" t="s">
         <v>31</v>
       </c>
       <c r="AC15" s="7" t="s">
@@ -2659,8 +2667,8 @@
       <c r="P16" s="24"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="24"/>
-      <c r="U16" s="36"/>
-      <c r="Y16" s="41" t="s">
+      <c r="U16" s="32"/>
+      <c r="Y16" s="37" t="s">
         <v>31</v>
       </c>
       <c r="Z16" s="7" t="s">
@@ -2672,7 +2680,7 @@
       <c r="AB16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AC16" s="41" t="s">
+      <c r="AC16" s="37" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2694,14 +2702,14 @@
       <c r="P17" s="24"/>
       <c r="Q17" s="25"/>
       <c r="R17" s="24"/>
-      <c r="U17" s="36"/>
+      <c r="U17" s="32"/>
       <c r="Y17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Z17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AA17" s="39" t="s">
+      <c r="AA17" s="35" t="s">
         <v>31</v>
       </c>
       <c r="AB17" s="7" t="s">
@@ -2736,8 +2744,8 @@
       <c r="P18" s="24"/>
       <c r="Q18" s="25"/>
       <c r="R18" s="24"/>
-      <c r="U18" s="36"/>
-      <c r="Y18" s="41" t="s">
+      <c r="U18" s="32"/>
+      <c r="Y18" s="37" t="s">
         <v>31</v>
       </c>
       <c r="Z18" s="7" t="s">
@@ -2749,7 +2757,7 @@
       <c r="AB18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AC18" s="41" t="s">
+      <c r="AC18" s="37" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2758,17 +2766,17 @@
       <c r="P19" s="24"/>
       <c r="Q19" s="25"/>
       <c r="R19" s="24"/>
-      <c r="U19" s="36"/>
+      <c r="U19" s="32"/>
       <c r="Y19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Z19" s="41" t="s">
+      <c r="Z19" s="37" t="s">
         <v>31</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AB19" s="41" t="s">
+      <c r="AB19" s="37" t="s">
         <v>31</v>
       </c>
       <c r="AC19" s="7" t="s">
@@ -2776,17 +2784,17 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
       <c r="O20" s="4"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="25"/>
       <c r="R20" s="24"/>
-      <c r="U20" s="36"/>
+      <c r="U20" s="32"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
@@ -2808,7 +2816,7 @@
       <c r="P21" s="24"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="24"/>
-      <c r="U21" s="36"/>
+      <c r="U21" s="32"/>
       <c r="X21">
         <v>1</v>
       </c>
@@ -2846,7 +2854,7 @@
       <c r="P22" s="24"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="24"/>
-      <c r="U22" s="36"/>
+      <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -2866,55 +2874,55 @@
       <c r="P23" s="24"/>
       <c r="Q23" s="25"/>
       <c r="R23" s="24"/>
-      <c r="U23" s="36"/>
+      <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="O24" s="4"/>
       <c r="P24" s="24"/>
       <c r="Q24" s="25"/>
       <c r="R24" s="24"/>
-      <c r="U24" s="36"/>
-      <c r="Y24" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z24" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA24" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB24" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC24" s="42" t="s">
+      <c r="U24" s="32"/>
+      <c r="Y24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC24" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
       <c r="O25" s="4"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="25"/>
       <c r="R25" s="24"/>
-      <c r="U25" s="36"/>
-      <c r="Y25" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z25" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA25" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB25" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC25" s="43" t="s">
+      <c r="U25" s="32"/>
+      <c r="Y25" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC25" s="38" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2935,20 +2943,20 @@
       <c r="P26" s="24"/>
       <c r="Q26" s="25"/>
       <c r="R26" s="24"/>
-      <c r="U26" s="36"/>
-      <c r="Y26" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z26" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA26" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB26" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC26" s="42" t="s">
+      <c r="U26" s="32"/>
+      <c r="Y26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z26" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB26" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC26" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2969,20 +2977,20 @@
       <c r="P27" s="24"/>
       <c r="Q27" s="25"/>
       <c r="R27" s="24"/>
-      <c r="U27" s="36"/>
-      <c r="Y27" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z27" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA27" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB27" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC27" s="42" t="s">
+      <c r="U27" s="32"/>
+      <c r="Y27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA27" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC27" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3011,20 +3019,20 @@
       </c>
       <c r="Q28" s="25"/>
       <c r="R28" s="24"/>
-      <c r="U28" s="36"/>
-      <c r="Y28" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z28" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA28" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB28" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC28" s="42" t="s">
+      <c r="U28" s="32"/>
+      <c r="Y28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z28" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB28" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC28" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3033,20 +3041,20 @@
       <c r="P29" s="24"/>
       <c r="Q29" s="25"/>
       <c r="R29" s="24"/>
-      <c r="U29" s="36"/>
+      <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
       <c r="O30" s="4"/>
       <c r="P30" s="24"/>
       <c r="Q30" s="25"/>
       <c r="R30" s="24"/>
-      <c r="U30" s="36"/>
+      <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
@@ -3065,7 +3073,7 @@
       <c r="P31" s="24"/>
       <c r="Q31" s="25"/>
       <c r="R31" s="24"/>
-      <c r="U31" s="36"/>
+      <c r="U31" s="32"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -3084,16 +3092,16 @@
       <c r="P32" s="24"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="24"/>
-      <c r="U32" s="36"/>
+      <c r="U32" s="32"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="39">
-        <v>50</v>
-      </c>
-      <c r="C33" s="40">
+      <c r="B33" s="35">
+        <v>50</v>
+      </c>
+      <c r="C33" s="36">
         <v>50</v>
       </c>
       <c r="K33" s="20">
@@ -3106,7 +3114,7 @@
       <c r="P33" s="24"/>
       <c r="Q33" s="25"/>
       <c r="R33" s="24"/>
-      <c r="U33" s="36">
+      <c r="U33" s="32">
         <v>100</v>
       </c>
     </row>
@@ -3117,13 +3125,13 @@
       <c r="R34" s="24"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
       <c r="O35" s="4"/>
       <c r="P35" s="24"/>
       <c r="Q35" s="25"/>
@@ -3195,12 +3203,12 @@
       <c r="R39" s="24"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
       <c r="O40" s="4"/>
       <c r="P40" s="24"/>
       <c r="Q40" s="25"/>
@@ -3275,12 +3283,12 @@
       <c r="R44" s="24"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
       <c r="O45" s="4"/>
       <c r="P45" s="24"/>
       <c r="Q45" s="25"/>
@@ -3346,14 +3354,14 @@
       <c r="R49" s="24"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
       <c r="O50" s="4"/>
       <c r="P50" s="24"/>
       <c r="Q50" s="25"/>
@@ -3423,14 +3431,14 @@
       <c r="R54" s="24"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
       <c r="O55" s="4"/>
       <c r="P55" s="24"/>
       <c r="Q55" s="25"/>
@@ -3510,13 +3518,13 @@
       <c r="R60" s="24"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
       <c r="O61" s="4"/>
       <c r="P61" s="24"/>
       <c r="Q61" s="25"/>
@@ -3565,7 +3573,7 @@
       <c r="A64" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="44">
+      <c r="B64" s="39">
         <v>16</v>
       </c>
       <c r="C64" s="7">
@@ -3590,7 +3598,7 @@
       <c r="P64" s="24"/>
       <c r="Q64" s="25"/>
       <c r="R64" s="24"/>
-      <c r="U64" s="35">
+      <c r="U64" s="31">
         <v>100</v>
       </c>
       <c r="V64">
@@ -3604,14 +3612,14 @@
       <c r="R65" s="24"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
       <c r="O66" s="4"/>
       <c r="P66" s="24"/>
       <c r="Q66" s="25"/>
@@ -3662,7 +3670,7 @@
       <c r="B69" s="7">
         <v>30</v>
       </c>
-      <c r="C69" s="44">
+      <c r="C69" s="39">
         <v>70</v>
       </c>
       <c r="D69"/>
@@ -3683,7 +3691,7 @@
       </c>
       <c r="Q69" s="25"/>
       <c r="R69" s="24"/>
-      <c r="U69" s="35">
+      <c r="U69" s="31">
         <v>100</v>
       </c>
       <c r="V69">
@@ -3697,14 +3705,14 @@
       <c r="R70" s="24"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
       <c r="O71" s="4"/>
       <c r="P71" s="24"/>
       <c r="Q71" s="25"/>
@@ -3780,12 +3788,12 @@
       <c r="R75" s="24"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
       <c r="O76" s="4"/>
       <c r="P76" s="24"/>
       <c r="Q76" s="25"/>
@@ -3829,13 +3837,13 @@
       <c r="A79" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="37">
+      <c r="B79" s="33">
         <v>33</v>
       </c>
-      <c r="C79" s="38">
+      <c r="C79" s="34">
         <v>33</v>
       </c>
-      <c r="D79" s="39">
+      <c r="D79" s="35">
         <v>33</v>
       </c>
       <c r="O79" s="4">
@@ -3852,17 +3860,17 @@
       <c r="R80" s="24"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
       <c r="O81" s="4"/>
       <c r="P81" s="24"/>
       <c r="Q81" s="25"/>
@@ -3952,17 +3960,17 @@
       <c r="R85" s="24"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
       <c r="O86" s="4"/>
       <c r="P86" s="24"/>
       <c r="Q86" s="25"/>
@@ -4060,18 +4068,18 @@
       <c r="R90" s="24"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
       <c r="O91" s="4"/>
       <c r="P91" s="24"/>
       <c r="Q91" s="25"/>
@@ -4168,16 +4176,16 @@
       <c r="R95" s="24"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
       <c r="O96" s="4"/>
       <c r="P96" s="24"/>
       <c r="Q96" s="25"/>

--- a/45.xlsx
+++ b/45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/18417269/Projects/my/StepicPythonBasic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3582DCF-074E-A845-915F-61EDBDC74D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A07FAC-7F89-D344-9E83-AD58BB85B56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740" xr2:uid="{14F5B9FF-BE4E-654C-9583-4D0D4035F04A}"/>
   </bookViews>
@@ -1943,7 +1943,7 @@
   <dimension ref="A2:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="P8" sqref="N7:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2247,10 +2247,10 @@
       <c r="N13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="48" t="s">
+      <c r="O13" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="40">
+      <c r="P13" s="49">
         <v>50</v>
       </c>
     </row>
@@ -2270,10 +2270,10 @@
       <c r="N14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="49" t="s">
+      <c r="O14" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="49">
+      <c r="P14" s="1">
         <v>50</v>
       </c>
     </row>
